--- a/results/Overlap_with_HWO_M_earth_2025.08.19.xlsx
+++ b/results/Overlap_with_HWO_M_earth_2025.08.19.xlsx
@@ -750,10 +750,10 @@
         <v>185.8487974986299</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08861298255678167</v>
+        <v>0.02979759935697768</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6311942604282857</v>
+        <v>0.2122496404701647</v>
       </c>
       <c r="T2" t="n">
         <v>0.01913424482184314</v>
@@ -771,7 +771,7 @@
         <v>0.2545505546694897</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4666587534146245</v>
+        <v>0.1569218208151987</v>
       </c>
       <c r="Z2" t="n">
         <v>2.675178851982804</v>
@@ -896,10 +896,10 @@
         <v>245.7629703836871</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1024226060409298</v>
+        <v>0.02828771295445239</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8138445361931101</v>
+        <v>0.2247726504847985</v>
       </c>
       <c r="T3" t="n">
         <v>0.01461539295951509</v>
@@ -917,7 +917,7 @@
         <v>0.309247207436402</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5393136274016379</v>
+        <v>0.1489509950397618</v>
       </c>
       <c r="Z3" t="n">
         <v>1.833398606190053</v>
@@ -1037,10 +1037,10 @@
         <v>233.8618542705035</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09541583882557886</v>
+        <v>0.02533251488325888</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7710372276901359</v>
+        <v>0.2047072298102656</v>
       </c>
       <c r="T4" t="n">
         <v>0.009040132638104891</v>
@@ -1058,7 +1058,7 @@
         <v>0.3009235992525693</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5024327660503699</v>
+        <v>0.1333938440458992</v>
       </c>
       <c r="Z4" t="n">
         <v>2.216291768419251</v>
@@ -1183,10 +1183,10 @@
         <v>228.5347196553994</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09676639209942033</v>
+        <v>0.03197902243377149</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7691578664106123</v>
+        <v>0.2541886302817333</v>
       </c>
       <c r="T5" t="n">
         <v>0.0215795679051478</v>
@@ -1204,7 +1204,7 @@
         <v>0.2978263408351925</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5095505168788419</v>
+        <v>0.1683944916915628</v>
       </c>
       <c r="Z5" t="n">
         <v>2.679201724604715</v>
@@ -1329,10 +1329,10 @@
         <v>290.2632249120762</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1093408266343414</v>
+        <v>0.03095409839573692</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9598447662931058</v>
+        <v>0.2717295108791353</v>
       </c>
       <c r="T6" t="n">
         <v>0.01836566176992825</v>
@@ -1350,7 +1350,7 @@
         <v>0.3480613225914486</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5756786147846606</v>
+        <v>0.1629730909750521</v>
       </c>
       <c r="Z6" t="n">
         <v>1.543004944765388</v>
@@ -1470,10 +1470,10 @@
         <v>279.9616300555159</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1031216855267749</v>
+        <v>0.02857227245263953</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9184017952668383</v>
+        <v>0.2544646761863111</v>
       </c>
       <c r="T7" t="n">
         <v>0.0147839137731218</v>
@@ -1491,7 +1491,7 @@
         <v>0.3531250985305872</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5429493280148469</v>
+        <v>0.1504367975442937</v>
       </c>
       <c r="Z7" t="n">
         <v>1.953362366508123</v>
@@ -1616,10 +1616,10 @@
         <v>284.9053574958589</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1031721371464126</v>
+        <v>0.02916543130049627</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9355616786461699</v>
+        <v>0.264471209191004</v>
       </c>
       <c r="T8" t="n">
         <v>0.01587689450297911</v>
@@ -1637,7 +1637,7 @@
         <v>0.3589072716637888</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5432080743371672</v>
+        <v>0.1535579102279593</v>
       </c>
       <c r="Z8" t="n">
         <v>1.973230055558392</v>
@@ -1757,10 +1757,10 @@
         <v>332.8525260660337</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1116212500667504</v>
+        <v>0.02939620410170934</v>
       </c>
       <c r="S9" t="n">
-        <v>1.085395236131553</v>
+        <v>0.2858461079164208</v>
       </c>
       <c r="T9" t="n">
         <v>0.01481984162473158</v>
@@ -1778,7 +1778,7 @@
         <v>0.3996198518129659</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5876159183829188</v>
+        <v>0.1547525893131269</v>
       </c>
       <c r="Z9" t="n">
         <v>1.712118408202441</v>
@@ -1903,10 +1903,10 @@
         <v>303.857374296533</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1079965394964106</v>
+        <v>0.0273352258347205</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9867341978977661</v>
+        <v>0.2497543186490128</v>
       </c>
       <c r="T10" t="n">
         <v>0.01099807791663608</v>
@@ -1924,7 +1924,7 @@
         <v>0.3807978093607899</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5685803833380233</v>
+        <v>0.1439145481532155</v>
       </c>
       <c r="Z10" t="n">
         <v>1.750714081180046</v>
@@ -2044,10 +2044,10 @@
         <v>302.7588036307113</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1073178191019269</v>
+        <v>0.02726912741223731</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9834489188848723</v>
+        <v>0.2498913423410885</v>
       </c>
       <c r="T11" t="n">
         <v>0.01097442089935939</v>
@@ -2065,7 +2065,7 @@
         <v>0.3800020170877917</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5650087328529874</v>
+        <v>0.143566979408718</v>
       </c>
       <c r="Z11" t="n">
         <v>1.773764720596302</v>
@@ -2185,10 +2185,10 @@
         <v>292.8154777280224</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1029460856381189</v>
+        <v>0.02894398754786438</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9586094959406036</v>
+        <v>0.2695195367729028</v>
       </c>
       <c r="T12" t="n">
         <v>0.01538823344818924</v>
@@ -2206,7 +2206,7 @@
         <v>0.3732018204301692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.5420067219909597</v>
+        <v>0.1523888520376751</v>
       </c>
       <c r="Z12" t="n">
         <v>2.185671274726886</v>
@@ -2326,10 +2326,10 @@
         <v>366.3081757600917</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1176221965873471</v>
+        <v>0.02893912804822443</v>
       </c>
       <c r="S13" t="n">
-        <v>1.186187286688486</v>
+        <v>0.2918430940299807</v>
       </c>
       <c r="T13" t="n">
         <v>0.01249608072524599</v>
@@ -2347,7 +2347,7 @@
         <v>0.4326924435957378</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.6191442103137409</v>
+        <v>0.1523308873872329</v>
       </c>
       <c r="Z13" t="n">
         <v>1.523822441374162</v>
@@ -2472,10 +2472,10 @@
         <v>380.5274144141753</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1238635526702909</v>
+        <v>0.03117502305323002</v>
       </c>
       <c r="S14" t="n">
-        <v>1.232552535456185</v>
+        <v>0.3102192120182906</v>
       </c>
       <c r="T14" t="n">
         <v>0.01609031919474043</v>
@@ -2493,7 +2493,7 @@
         <v>0.4466196204122587</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6519678020857008</v>
+        <v>0.1640927522407523</v>
       </c>
       <c r="Z14" t="n">
         <v>1.25015691391364</v>
@@ -2618,10 +2618,10 @@
         <v>323.8647870003163</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1079278038823272</v>
+        <v>0.03247915201864971</v>
       </c>
       <c r="S15" t="n">
-        <v>1.064718951439451</v>
+        <v>0.3204101949358929</v>
       </c>
       <c r="T15" t="n">
         <v>0.02071389636213166</v>
@@ -2639,7 +2639,7 @@
         <v>0.4071262227019383</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5681869422674219</v>
+        <v>0.1709868023724068</v>
       </c>
       <c r="Z15" t="n">
         <v>1.844836198763456</v>
@@ -2764,10 +2764,10 @@
         <v>365.3077092385499</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1241597848300966</v>
+        <v>0.0347238602883685</v>
       </c>
       <c r="S16" t="n">
-        <v>1.186798163813344</v>
+        <v>0.3319127339592278</v>
       </c>
       <c r="T16" t="n">
         <v>0.0222083665404725</v>
@@ -2785,7 +2785,7 @@
         <v>0.4573794417773399</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6535590855043918</v>
+        <v>0.1827813603760956</v>
       </c>
       <c r="Z16" t="n">
         <v>1.684038290222404</v>
@@ -2910,10 +2910,10 @@
         <v>434.9747725949474</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1299474136850239</v>
+        <v>0.03320804839880923</v>
       </c>
       <c r="S17" t="n">
-        <v>1.406829272811972</v>
+        <v>0.3595150781041337</v>
       </c>
       <c r="T17" t="n">
         <v>0.01856926610322721</v>
@@ -2931,7 +2931,7 @@
         <v>0.5036370135031565</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6838597815488376</v>
+        <v>0.1747602978749405</v>
       </c>
       <c r="Z17" t="n">
         <v>1.226402369197755</v>
@@ -3056,10 +3056,10 @@
         <v>364.6266753510416</v>
       </c>
       <c r="R18" t="n">
-        <v>0.12024009027529</v>
+        <v>0.02741995601133851</v>
       </c>
       <c r="S18" t="n">
-        <v>1.16792160719555</v>
+        <v>0.2663367851826616</v>
       </c>
       <c r="T18" t="n">
         <v>0.006989450723578536</v>
@@ -3077,7 +3077,7 @@
         <v>0.4601753676917382</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6329277430664961</v>
+        <v>0.1443349787371676</v>
       </c>
       <c r="Z18" t="n">
         <v>1.060831560138101</v>
@@ -3194,10 +3194,10 @@
         <v>454.9039090145141</v>
       </c>
       <c r="R19" t="n">
-        <v>0.13138095814286</v>
+        <v>0.02922420290817499</v>
       </c>
       <c r="S19" t="n">
-        <v>1.458427760855945</v>
+        <v>0.3244107016164713</v>
       </c>
       <c r="T19" t="n">
         <v>0.008803699089899324</v>
@@ -3215,7 +3215,7 @@
         <v>0.5228162358938716</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6913507446289013</v>
+        <v>0.1537831260127014</v>
       </c>
       <c r="Z19" t="n">
         <v>1.177088983194154</v>
@@ -3340,10 +3340,10 @@
         <v>666.2793795323425</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1621282733160886</v>
+        <v>0.03617069303145026</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1411718559712</v>
+        <v>0.4776937935983648</v>
       </c>
       <c r="T20" t="n">
         <v>0.01756314026522218</v>
@@ -3361,7 +3361,7 @@
         <v>0.6586738663279574</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8522075159110509</v>
+        <v>0.1901268410909211</v>
       </c>
       <c r="Z20" t="n">
         <v>0.6165669580640616</v>
@@ -3481,10 +3481,10 @@
         <v>710.0173888051944</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1650011621752979</v>
+        <v>0.03294760017013199</v>
       </c>
       <c r="S21" t="n">
-        <v>2.272404408050696</v>
+        <v>0.453756027377294</v>
       </c>
       <c r="T21" t="n">
         <v>0.007217504922619879</v>
@@ -3502,7 +3502,7 @@
         <v>0.6827936599692225</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.8670387320816776</v>
+        <v>0.1731311773810162</v>
       </c>
       <c r="Z21" t="n">
         <v>0.4880538549496394</v>
@@ -3627,10 +3627,10 @@
         <v>896.5270268499016</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1985010594222482</v>
+        <v>0.03889426336222035</v>
       </c>
       <c r="S22" t="n">
-        <v>2.865939301608635</v>
+        <v>0.5615516526780338</v>
       </c>
       <c r="T22" t="n">
         <v>0.01366081121532532</v>
@@ -3648,7 +3648,7 @@
         <v>0.7990404597704105</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.041211696522907</v>
+        <v>0.2040148403149895</v>
       </c>
       <c r="Z22" t="n">
         <v>0.3340915542427599</v>
@@ -3773,10 +3773,10 @@
         <v>544.3989324383406</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1437376672795234</v>
+        <v>0.0319494469428017</v>
       </c>
       <c r="S23" t="n">
-        <v>1.745633996693742</v>
+        <v>0.3880127026860604</v>
       </c>
       <c r="T23" t="n">
         <v>0.0124461805487377</v>
@@ -3794,7 +3794,7 @@
         <v>0.5926520497047932</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.7560736351339183</v>
+        <v>0.1680570928119102</v>
       </c>
       <c r="Z23" t="n">
         <v>0.9676569692153486</v>
@@ -3919,10 +3919,10 @@
         <v>544.0780004292803</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1465436834100255</v>
+        <v>0.03195385571886441</v>
       </c>
       <c r="S24" t="n">
-        <v>1.740629752505816</v>
+        <v>0.379544383471723</v>
       </c>
       <c r="T24" t="n">
         <v>0.01168523861800267</v>
@@ -3940,7 +3940,7 @@
         <v>0.5984242868416478</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7708347691940711</v>
+        <v>0.1680805506232171</v>
       </c>
       <c r="Z24" t="n">
         <v>0.906764956917385</v>
@@ -4062,10 +4062,10 @@
         <v>930.6619575046815</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1965363495776822</v>
+        <v>0.03910267711002059</v>
       </c>
       <c r="S25" t="n">
-        <v>2.979441261036843</v>
+        <v>0.5927866771156612</v>
       </c>
       <c r="T25" t="n">
         <v>0.01428100419977162</v>
@@ -4083,7 +4083,7 @@
         <v>0.8292876502454331</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.030466220481214</v>
+        <v>0.2050205368057563</v>
       </c>
       <c r="Z25" t="n">
         <v>0.3687925877173285</v>
@@ -4208,10 +4208,10 @@
         <v>618.5008542055614</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1552750279735547</v>
+        <v>0.03597382682581127</v>
       </c>
       <c r="S26" t="n">
-        <v>1.987476277149291</v>
+        <v>0.4604547707874415</v>
       </c>
       <c r="T26" t="n">
         <v>0.01849807752632779</v>
@@ -4229,7 +4229,7 @@
         <v>0.6495667435386698</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.816431621031359</v>
+        <v>0.189149344446427</v>
       </c>
       <c r="Z26" t="n">
         <v>0.7940434459215121</v>
@@ -4354,10 +4354,10 @@
         <v>481.9153799252361</v>
       </c>
       <c r="R27" t="n">
-        <v>0.126586353337089</v>
+        <v>0.03255418251589592</v>
       </c>
       <c r="S27" t="n">
-        <v>1.562326591732636</v>
+        <v>0.4017831596844025</v>
       </c>
       <c r="T27" t="n">
         <v>0.01742416649880107</v>
@@ -4375,7 +4375,7 @@
         <v>0.5511318973670239</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6660469683787201</v>
+        <v>0.1712871411582653</v>
       </c>
       <c r="Z27" t="n">
         <v>1.37647581175124</v>
@@ -4500,10 +4500,10 @@
         <v>606.7875476519142</v>
       </c>
       <c r="R28" t="n">
-        <v>0.152278918620741</v>
+        <v>0.03796728115157546</v>
       </c>
       <c r="S28" t="n">
-        <v>1.959552550465464</v>
+        <v>0.4885698118207915</v>
       </c>
       <c r="T28" t="n">
         <v>0.02268407485752395</v>
@@ -4521,7 +4521,7 @@
         <v>0.6414080638120929</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.8007333370782923</v>
+        <v>0.1996446258723954</v>
       </c>
       <c r="Z28" t="n">
         <v>0.8528938169750084</v>
@@ -4646,10 +4646,10 @@
         <v>502.2349308672917</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1319671264965683</v>
+        <v>0.03546035560469753</v>
       </c>
       <c r="S29" t="n">
-        <v>1.632318313879474</v>
+        <v>0.4386136866572722</v>
       </c>
       <c r="T29" t="n">
         <v>0.02170465334314755</v>
@@ -4667,7 +4667,7 @@
         <v>0.5684962285406479</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.6942971375402139</v>
+        <v>0.1865617903951238</v>
       </c>
       <c r="Z29" t="n">
         <v>1.219684522050477</v>
@@ -4792,10 +4792,10 @@
         <v>1096.631622468331</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2126372259215323</v>
+        <v>0.04107392784260942</v>
       </c>
       <c r="S30" t="n">
-        <v>3.51867614947066</v>
+        <v>0.6796827302393504</v>
       </c>
       <c r="T30" t="n">
         <v>0.01336984006191756</v>
@@ -4813,7 +4813,7 @@
         <v>0.9228914990693117</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.111900545537153</v>
+        <v>0.2147795268567147</v>
       </c>
       <c r="Z30" t="n">
         <v>0.2644084526834496</v>
@@ -4938,10 +4938,10 @@
         <v>550.3911770750043</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1388124697191038</v>
+        <v>0.03643668630657293</v>
       </c>
       <c r="S31" t="n">
-        <v>1.786373289185572</v>
+        <v>0.4689025654266402</v>
       </c>
       <c r="T31" t="n">
         <v>0.02220726699312622</v>
@@ -4959,7 +4959,7 @@
         <v>0.6018582254089324</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.7301447850139599</v>
+        <v>0.1916546585747582</v>
       </c>
       <c r="Z31" t="n">
         <v>1.270700200018976</v>
@@ -5084,10 +5084,10 @@
         <v>608.1527212277065</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1470606061154813</v>
+        <v>0.03481455408647751</v>
       </c>
       <c r="S32" t="n">
-        <v>1.960383302403857</v>
+        <v>0.464093493931151</v>
       </c>
       <c r="T32" t="n">
         <v>0.01765694544672854</v>
@@ -5105,7 +5105,7 @@
         <v>0.6427960171258907</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.7732875798837852</v>
+        <v>0.1830650844259729</v>
       </c>
       <c r="Z32" t="n">
         <v>0.9403060490214101</v>
@@ -5230,10 +5230,10 @@
         <v>807.8285253071689</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1825239244540777</v>
+        <v>0.0390441030502366</v>
       </c>
       <c r="S33" t="n">
-        <v>2.587433953544394</v>
+        <v>0.5534838143548994</v>
       </c>
       <c r="T33" t="n">
         <v>0.01830632731316581</v>
@@ -5251,7 +5251,7 @@
         <v>0.7748030583635716</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.9583183425975809</v>
+        <v>0.2049960312612377</v>
       </c>
       <c r="Z33" t="n">
         <v>0.4698224901988813</v>
@@ -5376,10 +5376,10 @@
         <v>534.9018780626452</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1347458933561955</v>
+        <v>0.03512081879541989</v>
       </c>
       <c r="S34" t="n">
-        <v>1.735769324717441</v>
+        <v>0.4524192790269302</v>
       </c>
       <c r="T34" t="n">
         <v>0.02056132868977398</v>
@@ -5397,7 +5397,7 @@
         <v>0.5935989896801104</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.7088090262311644</v>
+        <v>0.1847473993512853</v>
       </c>
       <c r="Z34" t="n">
         <v>1.252485750795232</v>
@@ -5522,10 +5522,10 @@
         <v>1517.748845141926</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2413447122217998</v>
+        <v>0.0457067489998642</v>
       </c>
       <c r="S35" t="n">
-        <v>4.961282430769234</v>
+        <v>0.9395859088563978</v>
       </c>
       <c r="T35" t="n">
         <v>0.01349485690413846</v>
@@ -5543,7 +5543,7 @@
         <v>1.118256327482045</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.243752872603255</v>
+        <v>0.2355464921630142</v>
       </c>
       <c r="Z35" t="n">
         <v>0.1252505675351251</v>
@@ -5660,10 +5660,10 @@
         <v>573.3997087785676</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1423153012486027</v>
+        <v>0.0336910977272287</v>
       </c>
       <c r="S36" t="n">
-        <v>1.846639633594858</v>
+        <v>0.437165335115566</v>
       </c>
       <c r="T36" t="n">
         <v>0.01632418063804911</v>
@@ -5681,7 +5681,7 @@
         <v>0.6293890251791517</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.7484802540330036</v>
+        <v>0.1771919193810123</v>
       </c>
       <c r="Z36" t="n">
         <v>0.9941371187539264</v>
@@ -5806,10 +5806,10 @@
         <v>834.1299991188334</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1745651992626043</v>
+        <v>0.0385483885113819</v>
       </c>
       <c r="S37" t="n">
-        <v>2.684507722978835</v>
+        <v>0.592806854426464</v>
       </c>
       <c r="T37" t="n">
         <v>0.01855395892599037</v>
@@ -5827,7 +5827,7 @@
         <v>0.7948877954783655</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.9162930458972499</v>
+        <v>0.2023405608490681</v>
       </c>
       <c r="Z37" t="n">
         <v>0.5692240977606092</v>
@@ -5952,10 +5952,10 @@
         <v>640.6799046401379</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1492489626057147</v>
+        <v>0.03612093083520626</v>
       </c>
       <c r="S38" t="n">
-        <v>2.069061377712733</v>
+        <v>0.5007500327864693</v>
       </c>
       <c r="T38" t="n">
         <v>0.01949012458576415</v>
@@ -5973,7 +5973,7 @@
         <v>0.6762628747810386</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.7846399053351498</v>
+        <v>0.1898969564433577</v>
       </c>
       <c r="Z38" t="n">
         <v>0.8976155480627297</v>
@@ -6098,10 +6098,10 @@
         <v>681.7347541629648</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1582124129889299</v>
+        <v>0.03797497733297791</v>
       </c>
       <c r="S39" t="n">
-        <v>2.198459763536967</v>
+        <v>0.527685900938897</v>
       </c>
       <c r="T39" t="n">
         <v>0.02124410424262298</v>
@@ -6119,7 +6119,7 @@
         <v>0.7061732995796922</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.8315360813139125</v>
+        <v>0.19958967341999</v>
       </c>
       <c r="Z39" t="n">
         <v>0.7637387563969605</v>
@@ -6244,10 +6244,10 @@
         <v>744.8250719255465</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1615333726494542</v>
+        <v>0.03816410416149966</v>
       </c>
       <c r="S40" t="n">
-        <v>2.405178033970014</v>
+        <v>0.5682507800699519</v>
       </c>
       <c r="T40" t="n">
         <v>0.02067100788030379</v>
@@ -6265,7 +6265,7 @@
         <v>0.7447515781791074</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.8485845747431682</v>
+        <v>0.2004877974696926</v>
       </c>
       <c r="Z40" t="n">
         <v>0.7387211964130875</v>
@@ -6390,10 +6390,10 @@
         <v>679.1989776779841</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1563306075736423</v>
+        <v>0.03317164113940516</v>
       </c>
       <c r="S41" t="n">
-        <v>2.175734922963676</v>
+        <v>0.4616670989718004</v>
       </c>
       <c r="T41" t="n">
         <v>0.01066394588362045</v>
@@ -6411,7 +6411,7 @@
         <v>0.7085045505948163</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.8216601789818891</v>
+        <v>0.1743472824596252</v>
       </c>
       <c r="Z41" t="n">
         <v>0.7701663629538618</v>
@@ -6531,10 +6531,10 @@
         <v>1368.859627295949</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2296872804814968</v>
+        <v>0.04241035285970091</v>
       </c>
       <c r="S42" t="n">
-        <v>4.430697153663947</v>
+        <v>0.8181011560912184</v>
       </c>
       <c r="T42" t="n">
         <v>0.005725197964174394</v>
@@ -6552,7 +6552,7 @@
         <v>1.081453942752446</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.191898068449447</v>
+        <v>0.2200766953649796</v>
       </c>
       <c r="Z42" t="n">
         <v>0.8790383170548457</v>
@@ -6669,10 +6669,10 @@
         <v>948.0447993486778</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1905543486455362</v>
+        <v>0.03793950579038099</v>
       </c>
       <c r="S43" t="n">
-        <v>3.037440407535785</v>
+        <v>0.6047565366456444</v>
       </c>
       <c r="T43" t="n">
         <v>0.01171917050421338</v>
@@ -6690,7 +6690,7 @@
         <v>0.8731019981734591</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.9988703329862386</v>
+        <v>0.1988757908257735</v>
       </c>
       <c r="Z43" t="n">
         <v>0.4194914960754469</v>
@@ -6807,10 +6807,10 @@
         <v>731.1582382711508</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1629535657445257</v>
+        <v>0.03412572446305324</v>
       </c>
       <c r="S44" t="n">
-        <v>2.34173570155937</v>
+        <v>0.490406128590005</v>
       </c>
       <c r="T44" t="n">
         <v>0.01093837207233783</v>
@@ -6828,7 +6828,7 @@
         <v>0.7457998722046391</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.8561395376337838</v>
+        <v>0.1792926827328281</v>
       </c>
       <c r="Z44" t="n">
         <v>0.681491323520846</v>
@@ -6948,10 +6948,10 @@
         <v>1237.620054224844</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2173753846020791</v>
+        <v>0.04170834832610081</v>
       </c>
       <c r="S45" t="n">
-        <v>3.991242628830796</v>
+        <v>0.7658095148261092</v>
       </c>
       <c r="T45" t="n">
         <v>0.01130099431384891</v>
@@ -6969,7 +6969,7 @@
         <v>1.023595129324798</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.132901847030936</v>
+        <v>0.2173726567143119</v>
       </c>
       <c r="Z45" t="n">
         <v>0.2642243398515706</v>
@@ -7094,10 +7094,10 @@
         <v>866.3086696679782</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1710659033749357</v>
+        <v>0.03723401873335636</v>
       </c>
       <c r="S46" t="n">
-        <v>2.793040287574687</v>
+        <v>0.6079301154633967</v>
       </c>
       <c r="T46" t="n">
         <v>0.01584038955738059</v>
@@ -7115,7 +7115,7 @@
         <v>0.828132466475922</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.8976169701993961</v>
+        <v>0.1953743348288997</v>
       </c>
       <c r="Z46" t="n">
         <v>0.6267989512448702</v>
@@ -7240,10 +7240,10 @@
         <v>1285.62119037289</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2091704749567843</v>
+        <v>0.04047759781183728</v>
       </c>
       <c r="S47" t="n">
-        <v>4.170725564725906</v>
+        <v>0.8070974262854373</v>
       </c>
       <c r="T47" t="n">
         <v>0.008830785522338663</v>
@@ -7261,7 +7261,7 @@
         <v>1.049191794337178</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.088588954716178</v>
+        <v>0.2106581528799107</v>
       </c>
       <c r="Z47" t="n">
         <v>0.2657888411605542</v>
@@ -7386,10 +7386,10 @@
         <v>816.8790944553372</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1716442336981003</v>
+        <v>0.0407443078754581</v>
       </c>
       <c r="S48" t="n">
-        <v>2.638378988827979</v>
+        <v>0.6262891767283222</v>
       </c>
       <c r="T48" t="n">
         <v>0.02316092524737541</v>
@@ -7407,7 +7407,7 @@
         <v>0.8082051319580108</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.9011167828167082</v>
+        <v>0.2139039502801114</v>
       </c>
       <c r="Z48" t="n">
         <v>0.5953509816737408</v>
@@ -7532,10 +7532,10 @@
         <v>720.7862659486707</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1525235014535767</v>
+        <v>0.04152127176360124</v>
       </c>
       <c r="S49" t="n">
-        <v>2.35614944339346</v>
+        <v>0.6414114573980855</v>
       </c>
       <c r="T49" t="n">
         <v>0.02756780343398805</v>
@@ -7553,7 +7553,7 @@
         <v>0.7407261599323092</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.8014061325552707</v>
+        <v>0.2181657351537526</v>
       </c>
       <c r="Z49" t="n">
         <v>0.8906056203022326</v>
@@ -7678,10 +7678,10 @@
         <v>1477.380913247307</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2301204042755557</v>
+        <v>0.07002934991856249</v>
       </c>
       <c r="S50" t="n">
-        <v>4.984644856190354</v>
+        <v>1.516907811599029</v>
       </c>
       <c r="T50" t="n">
         <v>0.05604840949823443</v>
@@ -7699,7 +7699,7 @@
         <v>1.153308871514485</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.188437661617511</v>
+        <v>0.3616607450513304</v>
       </c>
       <c r="Z50" t="n">
         <v>0.2042709017828808</v>
@@ -7824,10 +7824,10 @@
         <v>796.81431764461</v>
       </c>
       <c r="R51" t="n">
-        <v>0.174197101631773</v>
+        <v>0.07691349931492308</v>
       </c>
       <c r="S51" t="n">
-        <v>2.794503196415719</v>
+        <v>1.233861055492253</v>
       </c>
       <c r="T51" t="n">
         <v>0.06974723535211266</v>
@@ -7845,7 +7845,7 @@
         <v>0.8006128553838092</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.9146947688433719</v>
+        <v>0.4038665099348952</v>
       </c>
       <c r="Z51" t="n">
         <v>0.7444129683581038</v>
@@ -7970,10 +7970,10 @@
         <v>1210.708556526963</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2121847436014034</v>
+        <v>0.07411465761041384</v>
       </c>
       <c r="S52" t="n">
-        <v>4.100763039258074</v>
+        <v>1.432368055485597</v>
       </c>
       <c r="T52" t="n">
         <v>0.06324223632599274</v>
@@ -7991,7 +7991,7 @@
         <v>1.03109617197945</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.106654531973161</v>
+        <v>0.3865467438331938</v>
       </c>
       <c r="Z52" t="n">
         <v>0.3006126699157793</v>
@@ -8116,10 +8116,10 @@
         <v>1230.299326711783</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2105416657255993</v>
+        <v>0.0664242305143692</v>
       </c>
       <c r="S53" t="n">
-        <v>4.1185697483243</v>
+        <v>1.299376184801115</v>
       </c>
       <c r="T53" t="n">
         <v>0.05386271514073006</v>
@@ -8137,7 +8137,7 @@
         <v>1.04549216297946</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.097508829457226</v>
+        <v>0.3462553562886457</v>
       </c>
       <c r="Z53" t="n">
         <v>0.3122784966545478</v>
@@ -8262,10 +8262,10 @@
         <v>1101.247854762019</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1969628285474122</v>
+        <v>0.05195856318888604</v>
       </c>
       <c r="S54" t="n">
-        <v>3.609937288448097</v>
+        <v>0.9522972232529444</v>
       </c>
       <c r="T54" t="n">
         <v>0.03618674198454506</v>
@@ -8283,7 +8283,7 @@
         <v>0.981750301436303</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.029843347175147</v>
+        <v>0.2716714672686233</v>
       </c>
       <c r="Z54" t="n">
         <v>0.3682336438301901</v>
@@ -8408,10 +8408,10 @@
         <v>958.1495376201941</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1836516666410061</v>
+        <v>0.05781775357061493</v>
       </c>
       <c r="S55" t="n">
-        <v>3.183685680793009</v>
+        <v>1.002297215729625</v>
       </c>
       <c r="T55" t="n">
         <v>0.04600330373593042</v>
@@ -8429,7 +8429,7 @@
         <v>0.9032573190295105</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.9625528709614892</v>
+        <v>0.3030337034769554</v>
       </c>
       <c r="Z55" t="n">
         <v>0.5543013734981523</v>
@@ -8554,10 +8554,10 @@
         <v>1140.32678451486</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2031114478791969</v>
+        <v>0.06645291708115313</v>
       </c>
       <c r="S56" t="n">
-        <v>3.822135120942934</v>
+        <v>1.250505724404313</v>
       </c>
       <c r="T56" t="n">
         <v>0.05473431013560322</v>
@@ -8575,7 +8575,7 @@
         <v>1.004787008460192</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.061123451808326</v>
+        <v>0.3471726950507744</v>
       </c>
       <c r="Z56" t="n">
         <v>0.3861022322764417</v>
@@ -8700,10 +8700,10 @@
         <v>991.4228377102024</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2100829617418005</v>
+        <v>0.1105508827697507</v>
       </c>
       <c r="S57" t="n">
-        <v>3.677798863778858</v>
+        <v>1.935349290915106</v>
       </c>
       <c r="T57" t="n">
         <v>0.1046429995029817</v>
@@ -8721,7 +8721,7 @@
         <v>0.9270861107020413</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.100550827079041</v>
+        <v>0.5791372344421734</v>
       </c>
       <c r="Z57" t="n">
         <v>0.4979930645837926</v>
@@ -8846,10 +8846,10 @@
         <v>1087.292633970525</v>
       </c>
       <c r="R58" t="n">
-        <v>0.215771648088938</v>
+        <v>0.1068738022776659</v>
       </c>
       <c r="S58" t="n">
-        <v>3.957392646328747</v>
+        <v>1.960135184417265</v>
       </c>
       <c r="T58" t="n">
         <v>0.1002349363359387</v>
@@ -8867,7 +8867,7 @@
         <v>0.9897207938221579</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.128496099497594</v>
+        <v>0.5589551272237152</v>
       </c>
       <c r="Z58" t="n">
         <v>0.4074737942111886</v>
@@ -8992,10 +8992,10 @@
         <v>1100.714171040751</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2309973553497165</v>
+        <v>0.135676134678721</v>
       </c>
       <c r="S59" t="n">
-        <v>4.30481342941034</v>
+        <v>2.528429149031645</v>
       </c>
       <c r="T59" t="n">
         <v>0.1305069295699918</v>
@@ -9013,7 +9013,7 @@
         <v>0.9971193390270346</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.207809724448667</v>
+        <v>0.7094061946833773</v>
       </c>
       <c r="Z59" t="n">
         <v>0.4424502235139683</v>
@@ -9138,10 +9138,10 @@
         <v>1055.998480826153</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2269581034648527</v>
+        <v>0.1340843489696082</v>
       </c>
       <c r="S60" t="n">
-        <v>4.137359366094451</v>
+        <v>2.444306365742944</v>
       </c>
       <c r="T60" t="n">
         <v>0.1290200372413315</v>
@@ -9159,7 +9159,7 @@
         <v>0.9743027756802667</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.187690414501131</v>
+        <v>0.7016744217308382</v>
       </c>
       <c r="Z60" t="n">
         <v>0.4698220463213008</v>
@@ -9284,10 +9284,10 @@
         <v>1119.488754117979</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2840651955981646</v>
+        <v>0.212962227293801</v>
       </c>
       <c r="S61" t="n">
-        <v>5.357853663599938</v>
+        <v>4.016755545542332</v>
       </c>
       <c r="T61" t="n">
         <v>0.209645765354255</v>
@@ -9305,7 +9305,7 @@
         <v>1.025535752483008</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.484715761398139</v>
+        <v>1.113083828449142</v>
       </c>
       <c r="Z61" t="n">
         <v>0.4255055133414155</v>
@@ -9430,10 +9430,10 @@
         <v>1048.540959466458</v>
       </c>
       <c r="R62" t="n">
-        <v>0.8603498570729622</v>
+        <v>0.8407608802764301</v>
       </c>
       <c r="S62" t="n">
-        <v>15.61474941771378</v>
+        <v>15.25922316114196</v>
       </c>
       <c r="T62" t="n">
         <v>0.8399658942834647</v>
@@ -9451,7 +9451,7 @@
         <v>0.9882110579130742</v>
       </c>
       <c r="Y62" t="n">
-        <v>4.502874426366659</v>
+        <v>4.40035020098248</v>
       </c>
       <c r="Z62" t="n">
         <v>2.834777491750536</v>
@@ -9552,10 +9552,10 @@
         <v>1017.504217633747</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2759708096810523</v>
+        <v>0.2116621991970968</v>
       </c>
       <c r="S63" t="n">
-        <v>5.012146544217585</v>
+        <v>3.844181786737937</v>
       </c>
       <c r="T63" t="n">
         <v>0.2086017455780188</v>
@@ -9573,7 +9573,7 @@
         <v>0.9724688889891336</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.445123028838275</v>
+        <v>1.108370551029622</v>
       </c>
       <c r="Z63" t="n">
         <v>0.5265930441298312</v>
@@ -9687,10 +9687,10 @@
         <v>1130.45330750387</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2950413986759113</v>
+        <v>0.2288627211623902</v>
       </c>
       <c r="S64" t="n">
-        <v>5.681982414583227</v>
+        <v>4.407496584663313</v>
       </c>
       <c r="T64" t="n">
         <v>0.2257965997639079</v>
@@ -9708,7 +9708,7 @@
         <v>1.034969981867021</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.541727202082462</v>
+        <v>1.195913130639177</v>
       </c>
       <c r="Z64" t="n">
         <v>0.4737852531373214</v>
@@ -9833,10 +9833,10 @@
         <v>1079.234183124676</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2838877587360643</v>
+        <v>0.2215671219976857</v>
       </c>
       <c r="S65" t="n">
-        <v>5.479113082731399</v>
+        <v>4.27630737670987</v>
       </c>
       <c r="T65" t="n">
         <v>0.2185920674873996</v>
@@ -9854,7 +9854,7 @@
         <v>1.004709704806168</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.484974830069552</v>
+        <v>1.158984807243522</v>
       </c>
       <c r="Z65" t="n">
         <v>0.5694848542965316</v>
@@ -9979,10 +9979,10 @@
         <v>1429.849882102506</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2945985198249294</v>
+        <v>0.205261543968465</v>
       </c>
       <c r="S66" t="n">
-        <v>6.399226768769639</v>
+        <v>4.458661800278454</v>
       </c>
       <c r="T66" t="n">
         <v>0.2010273759248852</v>
@@ -10000,7 +10000,7 @@
         <v>1.195810221256678</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.524864078316128</v>
+        <v>1.062449177420248</v>
       </c>
       <c r="Z66" t="n">
         <v>0.3068154242362686</v>
@@ -10119,10 +10119,10 @@
         <v>1550.805148256374</v>
       </c>
       <c r="R67" t="n">
-        <v>0.277193393389217</v>
+        <v>0.1670630169440624</v>
       </c>
       <c r="S67" t="n">
-        <v>6.28468239182727</v>
+        <v>3.787745400698043</v>
       </c>
       <c r="T67" t="n">
         <v>0.1613917576339824</v>
@@ -10140,7 +10140,7 @@
         <v>1.255401362211165</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.42577746189674</v>
+        <v>0.8593086630346197</v>
       </c>
       <c r="Z67" t="n">
         <v>0.2548256445536423</v>
@@ -10265,10 +10265,10 @@
         <v>1246.375922199096</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3056236432569773</v>
+        <v>0.2387722712854815</v>
       </c>
       <c r="S68" t="n">
-        <v>6.372629212676896</v>
+        <v>4.978695806893644</v>
       </c>
       <c r="T68" t="n">
         <v>0.2356275136235069</v>
@@ -10286,7 +10286,7 @@
         <v>1.125364378941089</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.592434045459205</v>
+        <v>1.244108897644788</v>
       </c>
       <c r="Z68" t="n">
         <v>0.4803640769736678</v>
